--- a/medicine/Mort/Cimetière_de_Neuilly-sur-Marne/Cimetière_de_Neuilly-sur-Marne.xlsx
+++ b/medicine/Mort/Cimetière_de_Neuilly-sur-Marne/Cimetière_de_Neuilly-sur-Marne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Neuilly-sur-Marne</t>
+          <t>Cimetière_de_Neuilly-sur-Marne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Neuilly-sur-Marne, est un cimetière se trouvant rue Paul-et-Camille-Thomoux (anciennement rue de Gagny) à Neuilly-sur-Marne en Seine-Saint-Denis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Neuilly-sur-Marne, est un cimetière se trouvant rue Paul-et-Camille-Thomoux (anciennement rue de Gagny) à Neuilly-sur-Marne en Seine-Saint-Denis.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Neuilly-sur-Marne</t>
+          <t>Cimetière_de_Neuilly-sur-Marne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite du décret impérial sur les sépultures promulgué le 12 juin 1804 par Napoléon Bonaparte à Saint-Cloud, et qui établissait que les tombes devaient être mises en dehors de la muraille de la ville, l'ancien cimetière de l'église Saint-Baudile dut être vidé. Les héritiers du général Donzelot firent alors don d'un terrain à la commune, qui permit de créer ce cimetière en 1855[2]. 
-Son agrandissement est prévu en 2018[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du décret impérial sur les sépultures promulgué le 12 juin 1804 par Napoléon Bonaparte à Saint-Cloud, et qui établissait que les tombes devaient être mises en dehors de la muraille de la ville, l'ancien cimetière de l'église Saint-Baudile dut être vidé. Les héritiers du général Donzelot firent alors don d'un terrain à la commune, qui permit de créer ce cimetière en 1855. 
+Son agrandissement est prévu en 2018.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Neuilly-sur-Marne</t>
+          <t>Cimetière_de_Neuilly-sur-Marne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">S'y trouvent deux carrés militaires, pour la première et la seconde guerres mondiales.
 			Carré militaire de la Ière Guerre mondiale
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Neuilly-sur-Marne</t>
+          <t>Cimetière_de_Neuilly-sur-Marne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Général Donzelot (1764-1843)</t>
         </is>
